--- a/Docs/EditableObjects.xlsx
+++ b/Docs/EditableObjects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>QMetaType::Void</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>QPen</t>
-  </si>
-  <si>
-    <t>cast lists</t>
   </si>
   <si>
     <t>QMetaType::QLineF</t>
@@ -562,7 +559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,6 +754,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,10 +928,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1264,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1354,25 +1357,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>128</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1508,25 +1511,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" s="1" customFormat="1">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" s="1" customFormat="1">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>74</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1574,14 +1577,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" s="2" customFormat="1">
+      <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>11</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1629,40 +1632,40 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1">
+    <row r="33" spans="1:3" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2">
         <v>19</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1">
+      <c r="A34" s="2" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="2" customFormat="1">
-      <c r="A34" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="B34" s="2">
         <v>25</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="6" customFormat="1">
-      <c r="A35" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="4" customFormat="1">
+      <c r="A35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="4">
+        <v>26</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="6">
-        <v>26</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="2" customFormat="1">
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
         <v>62</v>
       </c>
@@ -1673,18 +1676,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="5" customFormat="1">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:3" s="3" customFormat="1">
+      <c r="A37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>78</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1">
+    <row r="38" spans="1:3" s="1" customFormat="1">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1">
+    <row r="39" spans="1:3" s="1" customFormat="1">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -1706,307 +1709,305 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="3" customFormat="1">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:3" s="4" customFormat="1">
+      <c r="A40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>69</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" s="2" customFormat="1">
+      <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>77</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1">
+      <c r="A42" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="2" customFormat="1">
-      <c r="A42" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="B42" s="2">
         <v>24</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1">
+      <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" s="1" customFormat="1">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="3">
         <v>79</v>
       </c>
-      <c r="B43" s="1">
+      <c r="C43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="2" customFormat="1">
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2">
         <v>17</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1">
+      <c r="A45" s="2" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="2" customFormat="1">
-      <c r="A45" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="B45" s="2">
         <v>27</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1">
+      <c r="A46" s="2" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="2" customFormat="1">
-      <c r="A46" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="B46" s="2">
         <v>16</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="1" customFormat="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1">
         <v>68</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1">
+      <c r="A48" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="2" customFormat="1">
-      <c r="A48" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="B48" s="2">
         <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="2" customFormat="1">
+      <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" s="1" customFormat="1">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="2">
+        <v>66</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="1">
-        <v>66</v>
-      </c>
-      <c r="C49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1">
+      <c r="A50" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" s="1" customFormat="1">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="3">
+        <v>72</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="1">
-        <v>72</v>
-      </c>
-      <c r="C50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:3" s="3" customFormat="1">
+      <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" s="5" customFormat="1">
-      <c r="A51" s="5" t="s">
+      <c r="B51" s="3">
+        <v>13</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B51" s="5">
-        <v>13</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2">
         <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2">
         <v>76</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A54" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" s="1" customFormat="1">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="5">
+        <v>75</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B54" s="1">
-        <v>75</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2">
         <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A56" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A56" s="5" t="s">
+      <c r="B56" s="3">
+        <v>18</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B56" s="5">
-        <v>18</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2">
         <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="6" customFormat="1" ht="12" customHeight="1">
+      <c r="A58" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" s="4" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A58" s="4" t="s">
+      <c r="B58" s="6">
+        <v>80</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="4">
-        <v>80</v>
-      </c>
-      <c r="C58" s="4" t="s">
+    </row>
+    <row r="59" spans="1:3" s="6" customFormat="1">
+      <c r="A59" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" s="4" customFormat="1">
-      <c r="A59" s="4" t="s">
+      <c r="B59" s="6">
+        <v>81</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="4">
-        <v>81</v>
-      </c>
-      <c r="C59" s="4" t="s">
+    </row>
+    <row r="60" spans="1:3" s="6" customFormat="1">
+      <c r="A60" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" s="4" customFormat="1">
-      <c r="A60" s="4" t="s">
+      <c r="B60" s="6">
+        <v>82</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B60" s="4">
-        <v>82</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2">
         <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="2" customFormat="1">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2">
         <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="2" customFormat="1">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2">
         <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="3" customFormat="1">
+      <c r="A64" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="B64" s="3">
+        <v>86</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B64">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="65" spans="1:3" s="3" customFormat="1">
+      <c r="A65" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="B65" s="3">
+        <v>29</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B65">
-        <v>29</v>
-      </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="66" spans="1:3" s="3" customFormat="1">
+      <c r="A66" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="B66" s="3">
+        <v>256</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B66">
-        <v>256</v>
-      </c>
-      <c r="C66" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>